--- a/Customer_Segment_Project/inverse transform functions.xlsx
+++ b/Customer_Segment_Project/inverse transform functions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomasspringett/Classes/Machine Learning/MLRepository/Customer_Segment_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F29BD7-CD17-BD48-85A2-7F567AEF4D1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DE3B7D4-ADF6-C249-95A1-D2BBD09D5ADD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11580" yWindow="5460" windowWidth="28040" windowHeight="17440" xr2:uid="{C1D374FB-1640-3B41-9C2B-9B890D6B5DC6}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t xml:space="preserve">pca_features </t>
   </si>
@@ -234,7 +234,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -242,15 +242,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -565,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71C350AB-99D0-0D4C-A967-67AE725F4ACA}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -606,6 +616,9 @@
       <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="D2" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
@@ -640,6 +653,15 @@
         <v>14</v>
       </c>
     </row>
+    <row r="10" spans="1:6" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" ht="19" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
